--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3315298.160072919</v>
+        <v>3313046.080361712</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329267</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>65.72456219185356</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>61.42978662487896</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50.10896315666681</v>
       </c>
       <c r="C5" t="n">
-        <v>266.8321196145434</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,13 +950,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278465</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.00124118081828</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065926</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777578</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4346,19 +4346,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395024</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571093</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591989</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339178</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2245.732315283597</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259409</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283597</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1075.097337786232</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>906.1611548583251</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>756.0445154459893</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>608.1314218635962</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>461.2414743656858</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>293.5386377404047</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>147.3214509582625</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1705.527932658019</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1705.527932658019</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1477.538381760002</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>1256.745802616472</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>578.5476590249501</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,31 +5045,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5598,22 +5598,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6479,10 +6479,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,10 +6716,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699493.3769667762</v>
+        <v>699493.3769667761</v>
       </c>
     </row>
     <row r="15">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="K2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210052</v>
@@ -26347,13 +26347,13 @@
         <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820638</v>
+      </c>
+      <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820629</v>
-      </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685504</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.752076855</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="K4" t="n">
-        <v>14216.75207685509</v>
-      </c>
       <c r="L4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685508</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791144.8802593371</v>
+        <v>-791144.880259337</v>
       </c>
       <c r="C6" t="n">
-        <v>537599.8654682562</v>
+        <v>537599.8654682557</v>
       </c>
       <c r="D6" t="n">
-        <v>537599.8654682557</v>
+        <v>537599.8654682556</v>
       </c>
       <c r="E6" t="n">
-        <v>285680.1960128882</v>
+        <v>285645.4580874523</v>
       </c>
       <c r="F6" t="n">
-        <v>611092.6578202428</v>
+        <v>611057.9198948073</v>
       </c>
       <c r="G6" t="n">
-        <v>611092.6578202434</v>
+        <v>611057.9198948077</v>
       </c>
       <c r="H6" t="n">
-        <v>611092.657820243</v>
+        <v>611057.9198948076</v>
       </c>
       <c r="I6" t="n">
-        <v>611092.6578202429</v>
+        <v>611057.9198948074</v>
       </c>
       <c r="J6" t="n">
-        <v>393561.4554229658</v>
+        <v>393526.7174975299</v>
       </c>
       <c r="K6" t="n">
-        <v>611092.6578202432</v>
+        <v>611057.9198948077</v>
       </c>
       <c r="L6" t="n">
-        <v>611092.657820243</v>
+        <v>611057.9198948074</v>
       </c>
       <c r="M6" t="n">
-        <v>526037.6298847315</v>
+        <v>526002.8919592957</v>
       </c>
       <c r="N6" t="n">
-        <v>611092.6578202428</v>
+        <v>611057.9198948076</v>
       </c>
       <c r="O6" t="n">
-        <v>611092.657820243</v>
+        <v>611057.9198948076</v>
       </c>
       <c r="P6" t="n">
-        <v>611092.657820243</v>
+        <v>611057.9198948075</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.031580523222125e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393351</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>304.0065384866155</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>83.32522828944182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>332.6248785068138</v>
       </c>
       <c r="C5" t="n">
-        <v>98.44077215646416</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624357</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>16.35117922901981</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468608</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923771</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,10 +32078,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663259</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236316905</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396396</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
